--- a/2015-2016/PRE_PRO/pasantes/danessa/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_15_19.xlsx
+++ b/2015-2016/PRE_PRO/pasantes/danessa/2015/junio/SEGUIMIENTO Y CONTRO DE PRACTICAS Y PASANTIAS_15_19.xlsx
@@ -21,17 +21,21 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'SUPERVISIÓN IN-SITU'!$A$1:$L$17</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">'VISITAS INSTITUCIONES-COMUNIDAD'!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="75">
   <si>
     <t>UNIVERSIDAD TÉCNICA DE MACHALA</t>
   </si>
@@ -176,6 +180,10 @@
   </si>
   <si>
     <t>Econ. Gonzales Illescas Mayiya</t>
+  </si>
+  <si>
+    <t>Estuvo en el departamento de estadística, realizando sistematizacion de informes de pasantias de los estudiantes.
+Archivando unos documentos de oficios que ha recibido el departamento.</t>
   </si>
   <si>
     <t>_________________________________________________________</t>
@@ -795,7 +803,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Excel Built-in Excel Built-in Normal 2" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -865,15 +873,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1384200</xdr:colOff>
+      <xdr:colOff>1438200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1992240</xdr:colOff>
+      <xdr:colOff>2045520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -888,8 +896,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7125840" y="1440"/>
-          <a:ext cx="608040" cy="531720"/>
+          <a:off x="7179840" y="1440"/>
+          <a:ext cx="607320" cy="531000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -909,15 +917,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>682200</xdr:colOff>
+      <xdr:colOff>736200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>249840</xdr:rowOff>
+      <xdr:rowOff>231840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1443960</xdr:colOff>
+      <xdr:colOff>1497240</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -932,8 +940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4073040" y="249840"/>
-          <a:ext cx="761760" cy="822600"/>
+          <a:off x="4127040" y="231840"/>
+          <a:ext cx="761040" cy="822240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -953,15 +961,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>686160</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1107000</xdr:colOff>
+      <xdr:colOff>1160280</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>227520</xdr:rowOff>
+      <xdr:rowOff>227160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -976,8 +984,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2944080" y="0"/>
-          <a:ext cx="474840" cy="760680"/>
+          <a:off x="2998080" y="0"/>
+          <a:ext cx="474120" cy="760320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -997,15 +1005,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>450720</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>947880</xdr:colOff>
+      <xdr:colOff>1001160</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1020,8 +1028,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3486600" y="126000"/>
-          <a:ext cx="497160" cy="765360"/>
+          <a:off x="3540600" y="108000"/>
+          <a:ext cx="496440" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,15 +1049,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1219680</xdr:colOff>
+      <xdr:colOff>1273680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>241200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2063160</xdr:colOff>
+      <xdr:colOff>2116440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>259560</xdr:rowOff>
+      <xdr:rowOff>240840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1064,8 +1072,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4573080" y="259200"/>
-          <a:ext cx="843480" cy="828720"/>
+          <a:off x="4627080" y="241200"/>
+          <a:ext cx="842760" cy="828000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1341,7 +1349,7 @@
   <dimension ref="A1:O65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1583,7 +1591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="81" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="n">
         <v>42174</v>
       </c>
@@ -1608,7 +1616,9 @@
       <c r="H12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
@@ -1629,7 +1639,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -1645,7 +1655,7 @@
     </row>
     <row r="16" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -1705,7 +1715,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1775,7 +1785,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1799,7 +1809,7 @@
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1821,12 +1831,12 @@
     </row>
     <row r="9" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
       <c r="D9" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
@@ -1847,32 +1857,32 @@
     </row>
     <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I11" s="42"/>
     </row>
-    <row r="12" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="72.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="31" t="n">
         <v>42174</v>
       </c>
@@ -1886,9 +1896,11 @@
         <v>36</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>40</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
@@ -1914,7 +1926,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -1936,7 +1948,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2045,7 +2057,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -2059,7 +2071,7 @@
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -2087,7 +2099,7 @@
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -2119,14 +2131,14 @@
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -2145,10 +2157,10 @@
     </row>
     <row r="11" customFormat="false" ht="77.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>25</v>
@@ -2157,19 +2169,19 @@
         <v>26</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" s="50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J11" s="30" t="s">
         <v>34</v>
@@ -2309,7 +2321,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -2323,7 +2335,7 @@
     </row>
     <row r="24" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="51" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -2439,7 +2451,7 @@
     </row>
     <row r="4" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2455,7 +2467,7 @@
     </row>
     <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2471,7 +2483,7 @@
     </row>
     <row r="6" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -2521,22 +2533,22 @@
         <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="80.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2640,7 +2652,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
